--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/erkenningstype/erkenningstype.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/erkenningstype/erkenningstype.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,259 +413,254 @@
         <v>dc\.identifier</v>
       </c>
       <c r="D1" t="str">
+        <v>definition</v>
+      </c>
+      <c r="E1" t="str">
         <v>inScheme</v>
-      </c>
-      <c r="E1" t="str">
-        <v>member</v>
       </c>
       <c r="F1" t="str">
         <v>notation</v>
       </c>
       <c r="G1" t="str">
+        <v>note</v>
+      </c>
+      <c r="H1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/collection/erkenningstype/erkenningstypes</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/a</v>
       </c>
       <c r="B2" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Collection</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.collection.erkenningstype.erkenningstypes</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.erkenningstype.a</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>Boorwerkzaamheden die vallen onder discipline 1: bemalingen van de VLAREL-erkenning artikel 6, 7°, a) 1).</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/a|https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/b|https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/c|https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/d|https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/e|https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/f</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="F2" t="str">
-        <v>collectie_erkenningstypes</v>
+        <v>a</v>
       </c>
       <c r="G2" t="str">
-        <v>Collectie van erkenningstypes.</v>
+        <v>Boorwerkzaamheden die vallen onder discipline 1: bemalingen van de VLAREL-erkenning artikel 6, 7°, a) 1).</v>
       </c>
       <c r="H2" t="str">
-        <v>null</v>
+        <v>1. Bemalingen</v>
       </c>
       <c r="I2" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+      </c>
+      <c r="J2" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/a</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/b</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.erkenningstype.a</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.erkenningstype.b</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>Boorwerkzaamheden die vallen onder discipline 2: andere grondwaterwinningen van de VLAREL-erkenning artikel 6, 7°, a) 2). Andere grondwaterwinningen dan de grondwaterwinningen, vermeld in punt 1).</v>
       </c>
       <c r="E3" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="F3" t="str">
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="G3" t="str">
-        <v>1. Bemalingen</v>
+        <v>Boorwerkzaamheden die vallen onder discipline 2: andere grondwaterwinningen van de VLAREL-erkenning artikel 6, 7°, a) 2). Andere grondwaterwinningen dan de grondwaterwinningen, vermeld in punt 1).</v>
       </c>
       <c r="H3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>2. Andere grondwaterwinningen</v>
       </c>
       <c r="I3" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+      </c>
+      <c r="J3" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/b</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/c</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.erkenningstype.b</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.erkenningstype.c</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>Boorwerkzaamheden die vallen onder discipline 3: stabiliteitsboringen en geotechnische boringen van de VLAREL-erkenning artikel 6, 7°, a) 3). Stabiliteitsboringen en geotechnische boringen, met uitzondering van stabiliteitsboringen en geotechnische boringen als vermeld in rubriek 55.2 en 55.3 van de indelingslijst, vermeld in artikel 5.2.1, § 1, van het decreet Milieubeleid.</v>
       </c>
       <c r="E4" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="F4" t="str">
-        <v>b</v>
+        <v>c</v>
       </c>
       <c r="G4" t="str">
-        <v>2. Andere grondwaterwinningen</v>
+        <v>Boorwerkzaamheden die vallen onder discipline 3: stabiliteitsboringen en geotechnische boringen van de VLAREL-erkenning artikel 6, 7°, a) 3). Stabiliteitsboringen en geotechnische boringen, met uitzondering van stabiliteitsboringen en geotechnische boringen als vermeld in rubriek 55.2 en 55.3 van de indelingslijst, vermeld in artikel 5.2.1, § 1, van het decreet Milieubeleid.</v>
       </c>
       <c r="H4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>3. Stabiliteitsboringen en geotechnische boringen</v>
       </c>
       <c r="I4" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+      </c>
+      <c r="J4" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/c</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/d</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.erkenningstype.c</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.erkenningstype.d</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>Boorwerkzaamheden die vallen onder discipline 4: verticale boringen van de VLAREL-erkenning artikel 6, 7°, a) 4). a) verticale boringen als vermeld in rubriek 55.1 van bijlage 1 bij titel II van het VLAREM, met uitzondering van de boringen, vermeld in punt 3 (discipline 3: stabiliteitsboringen en geotechnische boringen). b) boringen die vallen onder de uitzondering, vermeld in rubriek 55.1 van bijlage 1 bij titel II van het VLAREM, met uitzondering van de boringen, vermeld in punt 3.</v>
       </c>
       <c r="E5" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="F5" t="str">
-        <v>c</v>
+        <v>d</v>
       </c>
       <c r="G5" t="str">
-        <v>3. Stabiliteitsboringen en geotechnische boringen</v>
+        <v>Boorwerkzaamheden die vallen onder discipline 4: verticale boringen van de VLAREL-erkenning artikel 6, 7°, a) 4). a) verticale boringen als vermeld in rubriek 55.1 van bijlage 1 bij titel II van het VLAREM, met uitzondering van de boringen, vermeld in punt 3 (discipline 3: stabiliteitsboringen en geotechnische boringen). b) boringen die vallen onder de uitzondering, vermeld in rubriek 55.1 van bijlage 1 bij titel II van het VLAREM, met uitzondering van de boringen, vermeld in punt 3.</v>
       </c>
       <c r="H5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>4. Verticale boringen</v>
       </c>
       <c r="I5" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+      </c>
+      <c r="J5" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/d</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/e</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.erkenningstype.d</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.erkenningstype.e</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>Boorwerkzaamheden die vallen onder discipline 5: andere boringen van de VLAREL-erkenning artikel 6, 7°, a) 5) andere boringen: andere boringen dan de boringen, vermeld in punt 1) tot en met 4).</v>
       </c>
       <c r="E6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="F6" t="str">
-        <v>d</v>
+        <v>e</v>
       </c>
       <c r="G6" t="str">
-        <v>4. Verticale boringen</v>
+        <v>Boorwerkzaamheden die vallen onder discipline 5: andere boringen van de VLAREL-erkenning artikel 6, 7°, a) 5) andere boringen: andere boringen dan de boringen, vermeld in punt 1) tot en met 4).</v>
       </c>
       <c r="H6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>5. Andere boringen</v>
       </c>
       <c r="I6" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+      </c>
+      <c r="J6" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/e</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/f</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.erkenningstype.e</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.erkenningstype.f</v>
       </c>
       <c r="D7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>Boorwerkzaamheden die niet moeten uitgevoerd worden door een boorbedrijf dat erkend is volgens VLAREL artikel 6, 7°, a).</v>
       </c>
       <c r="E7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="F7" t="str">
-        <v>e</v>
+        <v>f</v>
       </c>
       <c r="G7" t="str">
-        <v>5. Andere boringen</v>
+        <v>Boorwerkzaamheden die niet moeten uitgevoerd worden door een boorbedrijf dat erkend is volgens VLAREL artikel 6, 7°, a).</v>
       </c>
       <c r="H7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>buiten VLAREL erkende boorbedrijven</v>
       </c>
       <c r="I7" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+      </c>
+      <c r="J7" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/f</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="B8" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C8" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.erkenningstype.f</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.erkenningstype</v>
       </c>
       <c r="D8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>Discipline(s) mbt mechanische boringen waarvoor een boorbedrijf erkend kan zijn, of aanvraag tot erkenning kan doen volgens VLAREL artikel 6, 7°, a).</v>
       </c>
       <c r="E8" t="str">
         <v>null</v>
       </c>
       <c r="F8" t="str">
-        <v>f</v>
+        <v>erkenningstypes</v>
       </c>
       <c r="G8" t="str">
-        <v>buiten VLAREL erkende boorbedrijven</v>
+        <v>Discipline(s) mbt mechanische boringen waarvoor een boorbedrijf erkend kan zijn, of aanvraag tot erkenning kan doen volgens VLAREL artikel 6, 7°, a).</v>
       </c>
       <c r="H8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>Codelijst erkenningstype</v>
       </c>
       <c r="I8" t="str">
         <v>null</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
-      </c>
-      <c r="B9" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C9" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.erkenningstype</v>
-      </c>
-      <c r="D9" t="str">
-        <v>null</v>
-      </c>
-      <c r="E9" t="str">
-        <v>null</v>
-      </c>
-      <c r="F9" t="str">
-        <v>erkenningstypes</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Conceptschema van erkenningstypes.</v>
-      </c>
-      <c r="H9" t="str">
-        <v>null</v>
-      </c>
-      <c r="I9" t="str">
+      <c r="J8" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/a|https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/b|https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/c|https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/d|https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/e|https://data.bodemenondergrond.vlaanderen.be/id/concept/erkenningstype/f</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/erkenningstype/erkenningstype.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/erkenningstype/erkenningstype.xlsx
@@ -448,7 +448,7 @@
         <v>Boorwerkzaamheden die vallen onder discipline 1: bemalingen van de VLAREL-erkenning artikel 6, 7°, a) 1).</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="F2" t="str">
         <v>a</v>
@@ -460,7 +460,7 @@
         <v>1. Bemalingen</v>
       </c>
       <c r="I2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="J2" t="str">
         <v>null</v>
@@ -480,7 +480,7 @@
         <v>Boorwerkzaamheden die vallen onder discipline 2: andere grondwaterwinningen van de VLAREL-erkenning artikel 6, 7°, a) 2). Andere grondwaterwinningen dan de grondwaterwinningen, vermeld in punt 1).</v>
       </c>
       <c r="E3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="F3" t="str">
         <v>b</v>
@@ -492,7 +492,7 @@
         <v>2. Andere grondwaterwinningen</v>
       </c>
       <c r="I3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="J3" t="str">
         <v>null</v>
@@ -512,7 +512,7 @@
         <v>Boorwerkzaamheden die vallen onder discipline 3: stabiliteitsboringen en geotechnische boringen van de VLAREL-erkenning artikel 6, 7°, a) 3). Stabiliteitsboringen en geotechnische boringen, met uitzondering van stabiliteitsboringen en geotechnische boringen als vermeld in rubriek 55.2 en 55.3 van de indelingslijst, vermeld in artikel 5.2.1, § 1, van het decreet Milieubeleid.</v>
       </c>
       <c r="E4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="F4" t="str">
         <v>c</v>
@@ -524,7 +524,7 @@
         <v>3. Stabiliteitsboringen en geotechnische boringen</v>
       </c>
       <c r="I4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="J4" t="str">
         <v>null</v>
@@ -544,7 +544,7 @@
         <v>Boorwerkzaamheden die vallen onder discipline 4: verticale boringen van de VLAREL-erkenning artikel 6, 7°, a) 4). a) verticale boringen als vermeld in rubriek 55.1 van bijlage 1 bij titel II van het VLAREM, met uitzondering van de boringen, vermeld in punt 3 (discipline 3: stabiliteitsboringen en geotechnische boringen). b) boringen die vallen onder de uitzondering, vermeld in rubriek 55.1 van bijlage 1 bij titel II van het VLAREM, met uitzondering van de boringen, vermeld in punt 3.</v>
       </c>
       <c r="E5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="F5" t="str">
         <v>d</v>
@@ -556,7 +556,7 @@
         <v>4. Verticale boringen</v>
       </c>
       <c r="I5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="J5" t="str">
         <v>null</v>
@@ -576,7 +576,7 @@
         <v>Boorwerkzaamheden die vallen onder discipline 5: andere boringen van de VLAREL-erkenning artikel 6, 7°, a) 5) andere boringen: andere boringen dan de boringen, vermeld in punt 1) tot en met 4).</v>
       </c>
       <c r="E6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="F6" t="str">
         <v>e</v>
@@ -588,7 +588,7 @@
         <v>5. Andere boringen</v>
       </c>
       <c r="I6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="J6" t="str">
         <v>null</v>
@@ -608,7 +608,7 @@
         <v>Boorwerkzaamheden die niet moeten uitgevoerd worden door een boorbedrijf dat erkend is volgens VLAREL artikel 6, 7°, a).</v>
       </c>
       <c r="E7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="F7" t="str">
         <v>f</v>
@@ -620,7 +620,7 @@
         <v>buiten VLAREL erkende boorbedrijven</v>
       </c>
       <c r="I7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="J7" t="str">
         <v>null</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/erkenningstype</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/erkenningstype</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
